--- a/docs/Scenarios_Summary.xlsx
+++ b/docs/Scenarios_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="513" documentId="8_{0C8F64EE-B0B2-44A8-A4B9-30099FAA7F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2D70CD0-F199-4B8A-AE4D-A79FC9A11452}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="8_{0C8F64EE-B0B2-44A8-A4B9-30099FAA7F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6ECBA0C6-0F9A-4BC2-83AB-CAD0F7A3C364}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ED9138C3-D783-4741-B063-C90EAAF57C92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{ED9138C3-D783-4741-B063-C90EAAF57C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1669,7 +1669,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11468100" y="2843212"/>
+              <a:off x="11963400" y="2843212"/>
               <a:ext cx="3067050" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1747,7 +1747,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8324850" y="2833687"/>
+              <a:off x="8820150" y="2833687"/>
               <a:ext cx="3076575" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2080,9 +2080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A3BAA7-FC54-4BB7-A8F8-78BB3D786792}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="T37" sqref="A1:T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,15 +2233,15 @@
         <v>0.85</v>
       </c>
       <c r="O2" s="2">
-        <f>F2*0</f>
+        <f t="shared" ref="O2:O37" si="0">F2*0</f>
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <f>G2*L2</f>
+        <f t="shared" ref="P2:P37" si="1">G2*L2</f>
         <v>7.7464397000000004E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f>H2*M2</f>
+        <f t="shared" ref="Q2:Q37" si="2">H2*M2</f>
         <v>4.2828770500000002E-2</v>
       </c>
       <c r="R2" s="2">
@@ -2249,11 +2249,11 @@
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S2" s="2">
-        <f>SUM(O2:R2)</f>
+        <f t="shared" ref="S2:S37" si="3">SUM(O2:R2)</f>
         <v>0.15215293805000002</v>
       </c>
       <c r="T2" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S2,0.05))</f>
+        <f t="shared" ref="T2:T37" si="4">_xlfn.CONCAT(MROUND(S2,0.05))</f>
         <v>0.15</v>
       </c>
       <c r="U2">
@@ -2328,51 +2328,51 @@
         <v>0.85</v>
       </c>
       <c r="O3" s="2">
-        <f>F3*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <f>G3*L3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <f>H3*M3</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="R3" s="2">
-        <f>I3*N3</f>
+        <f t="shared" ref="R3:R37" si="5">I3*N3</f>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S3" s="2">
-        <f>SUM(O3:R3)</f>
+        <f t="shared" si="3"/>
         <v>0.51185977054999998</v>
       </c>
       <c r="T3" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S3,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U37" si="0">IF($T3="0.15",1,0)</f>
+        <f t="shared" ref="U3:U37" si="6">IF($T3="0.15",1,0)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V37" si="1">IF($T3="0.3",1,0)</f>
+        <f t="shared" ref="V3:V37" si="7">IF($T3="0.3",1,0)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W37" si="2">IF($T3="0.5",1,0)</f>
+        <f t="shared" ref="W3:W37" si="8">IF($T3="0.5",1,0)</f>
         <v>1</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X2:Y37" si="3">IF($T3="0.65",1,0)</f>
+        <f t="shared" ref="X3:X37" si="9">IF($T3="0.65",1,0)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y37" si="4">IF($T3="0.7",1,0)</f>
+        <f t="shared" ref="Y3:Y37" si="10">IF($T3="0.7",1,0)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z37" si="5">IF($T3="0.85",1,0)</f>
+        <f t="shared" ref="Z3:Z37" si="11">IF($T3="0.85",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2423,51 +2423,51 @@
         <v>0.85</v>
       </c>
       <c r="O4" s="2">
-        <f>F4*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <f>G4*L4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f>H4*M4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>I4*N4</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S4" s="2">
-        <f>SUM(O4:R4)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T4" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S4,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -2518,51 +2518,51 @@
         <v>0.85</v>
       </c>
       <c r="O5" s="2">
-        <f>F5*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <f>G5*L5</f>
+        <f t="shared" si="1"/>
         <v>7.7464397000000004E-2</v>
       </c>
       <c r="Q5" s="2">
-        <f>H5*M5</f>
+        <f t="shared" si="2"/>
         <v>4.2828770500000002E-2</v>
       </c>
       <c r="R5" s="2">
-        <f>I5*N5</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S5" s="2">
-        <f>SUM(O5:R5)</f>
+        <f t="shared" si="3"/>
         <v>0.15215293805000002</v>
       </c>
       <c r="T5" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S5,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2613,51 +2613,51 @@
         <v>0.85</v>
       </c>
       <c r="O6" s="2">
-        <f>F6*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <f>G6*L6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <f>H6*M6</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="R6" s="2">
-        <f>I6*N6</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S6" s="2">
-        <f>SUM(O6:R6)</f>
+        <f t="shared" si="3"/>
         <v>0.51185977054999998</v>
       </c>
       <c r="T6" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S6,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,51 +2708,51 @@
         <v>0.85</v>
       </c>
       <c r="O7" s="2">
-        <f>F7*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <f>G7*L7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <f>H7*M7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <f>I7*N7</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S7" s="2">
-        <f>SUM(O7:R7)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T7" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S7,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -2803,51 +2803,51 @@
         <v>0.85</v>
       </c>
       <c r="O8" s="2">
-        <f>F8*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f>G8*L8</f>
+        <f t="shared" si="1"/>
         <v>7.7464397000000004E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f>H8*M8</f>
+        <f t="shared" si="2"/>
         <v>4.2828770500000002E-2</v>
       </c>
       <c r="R8" s="2">
-        <f>I8*N8</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S8" s="2">
-        <f>SUM(O8:R8)</f>
+        <f t="shared" si="3"/>
         <v>0.15215293805000002</v>
       </c>
       <c r="T8" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S8,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2898,51 +2898,51 @@
         <v>0.85</v>
       </c>
       <c r="O9" s="2">
-        <f>F9*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f>G9*L9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f>H9*M9</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="R9" s="2">
-        <f>I9*N9</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S9" s="2">
-        <f>SUM(O9:R9)</f>
+        <f t="shared" si="3"/>
         <v>0.51185977054999998</v>
       </c>
       <c r="T9" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S9,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2993,51 +2993,51 @@
         <v>0.85</v>
       </c>
       <c r="O10" s="2">
-        <f>F10*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <f>G10*L10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <f>H10*M10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
-        <f>I10*N10</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S10" s="2">
-        <f>SUM(O10:R10)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T10" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S10,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3088,51 +3088,51 @@
         <v>0.85</v>
       </c>
       <c r="O11" s="2">
-        <f>F11*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <f>G11*L11</f>
+        <f t="shared" si="1"/>
         <v>7.7464397000000004E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f>H11*M11</f>
+        <f t="shared" si="2"/>
         <v>4.2828770500000002E-2</v>
       </c>
       <c r="R11" s="2">
-        <f>I11*N11</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S11" s="2">
-        <f>SUM(O11:R11)</f>
+        <f t="shared" si="3"/>
         <v>0.15215293805000002</v>
       </c>
       <c r="T11" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S11,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="U11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3183,51 +3183,51 @@
         <v>0.85</v>
       </c>
       <c r="O12" s="2">
-        <f>F12*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f>G12*L12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f>H12*M12</f>
+        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="R12" s="2">
-        <f>I12*N12</f>
+        <f t="shared" si="5"/>
         <v>3.1859770549999999E-2</v>
       </c>
       <c r="S12" s="2">
-        <f>SUM(O12:R12)</f>
+        <f t="shared" si="3"/>
         <v>0.51185977054999998</v>
       </c>
       <c r="T12" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S12,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3278,51 +3278,51 @@
         <v>0.85</v>
       </c>
       <c r="O13" s="2">
-        <f>F13*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f>G13*L13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f>H13*M13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>I13*N13</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S13" s="2">
-        <f>SUM(O13:R13)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T13" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S13,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3373,51 +3373,51 @@
         <v>0.85</v>
       </c>
       <c r="O14" s="2">
-        <f>F14*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f>G14*L14</f>
+        <f t="shared" si="1"/>
         <v>5.6266527000000004E-2</v>
       </c>
       <c r="Q14" s="2">
-        <f>H14*M14</f>
+        <f t="shared" si="2"/>
         <v>0.19116401499999999</v>
       </c>
       <c r="R14" s="2">
-        <f>I14*N14</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S14" s="2">
-        <f>SUM(O14:R14)</f>
+        <f t="shared" si="3"/>
         <v>0.28947792550000001</v>
       </c>
       <c r="T14" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S14,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3468,51 +3468,51 @@
         <v>0.85</v>
       </c>
       <c r="O15" s="2">
-        <f>F15*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f>G15*L15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f>H15*M15</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="R15" s="2">
-        <f>I15*N15</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S15" s="2">
-        <f>SUM(O15:R15)</f>
+        <f t="shared" si="3"/>
         <v>0.51704738350000001</v>
       </c>
       <c r="T15" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S15,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3563,51 +3563,51 @@
         <v>0.85</v>
       </c>
       <c r="O16" s="2">
-        <f>F16*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <f>G16*L16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f>H16*M16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>I16*N16</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S16" s="2">
-        <f>SUM(O16:R16)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T16" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S16,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3658,51 +3658,51 @@
         <v>0.85</v>
       </c>
       <c r="O17" s="2">
-        <f>F17*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <f>G17*L17</f>
+        <f t="shared" si="1"/>
         <v>5.6266527000000004E-2</v>
       </c>
       <c r="Q17" s="2">
-        <f>H17*M17</f>
+        <f t="shared" si="2"/>
         <v>0.19116401499999999</v>
       </c>
       <c r="R17" s="2">
-        <f>I17*N17</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S17" s="2">
-        <f>SUM(O17:R17)</f>
+        <f t="shared" si="3"/>
         <v>0.28947792550000001</v>
       </c>
       <c r="T17" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S17,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="U17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3753,51 +3753,51 @@
         <v>0.85</v>
       </c>
       <c r="O18" s="2">
-        <f>F18*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <f>G18*L18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <f>H18*M18</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="R18" s="2">
-        <f>I18*N18</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S18" s="2">
-        <f>SUM(O18:R18)</f>
+        <f t="shared" si="3"/>
         <v>0.51704738350000001</v>
       </c>
       <c r="T18" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S18,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3848,51 +3848,51 @@
         <v>0.85</v>
       </c>
       <c r="O19" s="2">
-        <f>F19*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <f>G19*L19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <f>H19*M19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>I19*N19</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S19" s="2">
-        <f>SUM(O19:R19)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T19" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S19,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3943,51 +3943,51 @@
         <v>0.85</v>
       </c>
       <c r="O20" s="2">
-        <f>F20*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <f>G20*L20</f>
+        <f t="shared" si="1"/>
         <v>5.6266527000000004E-2</v>
       </c>
       <c r="Q20" s="2">
-        <f>H20*M20</f>
+        <f t="shared" si="2"/>
         <v>0.19116401499999999</v>
       </c>
       <c r="R20" s="2">
-        <f>I20*N20</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S20" s="2">
-        <f>SUM(O20:R20)</f>
+        <f t="shared" si="3"/>
         <v>0.28947792550000001</v>
       </c>
       <c r="T20" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S20,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="U20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4038,51 +4038,51 @@
         <v>0.85</v>
       </c>
       <c r="O21" s="2">
-        <f>F21*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <f>G21*L21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <f>H21*M21</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="R21" s="2">
-        <f>I21*N21</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S21" s="2">
-        <f>SUM(O21:R21)</f>
+        <f t="shared" si="3"/>
         <v>0.51704738350000001</v>
       </c>
       <c r="T21" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S21,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4133,51 +4133,51 @@
         <v>0.85</v>
       </c>
       <c r="O22" s="2">
-        <f>F22*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <f>G22*L22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <f>H22*M22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>I22*N22</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S22" s="2">
-        <f>SUM(O22:R22)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T22" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S22,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4228,51 +4228,51 @@
         <v>0.85</v>
       </c>
       <c r="O23" s="2">
-        <f>F23*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <f>G23*L23</f>
+        <f t="shared" si="1"/>
         <v>5.6266527000000004E-2</v>
       </c>
       <c r="Q23" s="2">
-        <f>H23*M23</f>
+        <f t="shared" si="2"/>
         <v>0.19116401499999999</v>
       </c>
       <c r="R23" s="2">
-        <f>I23*N23</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S23" s="2">
-        <f>SUM(O23:R23)</f>
+        <f t="shared" si="3"/>
         <v>0.28947792550000001</v>
       </c>
       <c r="T23" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S23,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="U23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4323,51 +4323,51 @@
         <v>0.85</v>
       </c>
       <c r="O24" s="2">
-        <f>F24*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <f>G24*L24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <f>H24*M24</f>
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="R24" s="2">
-        <f>I24*N24</f>
+        <f t="shared" si="5"/>
         <v>4.20473835E-2</v>
       </c>
       <c r="S24" s="2">
-        <f>SUM(O24:R24)</f>
+        <f t="shared" si="3"/>
         <v>0.51704738350000001</v>
       </c>
       <c r="T24" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S24,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="U24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4418,51 +4418,51 @@
         <v>0.85</v>
       </c>
       <c r="O25" s="2">
-        <f>F25*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <f>G25*L25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <f>H25*M25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>I25*N25</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S25" s="2">
-        <f>SUM(O25:R25)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T25" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S25,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4513,51 +4513,51 @@
         <v>0.85</v>
       </c>
       <c r="O26" s="2">
-        <f>F26*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <f>G26*L26</f>
+        <f t="shared" si="1"/>
         <v>4.6978140000000007E-3</v>
       </c>
       <c r="Q26" s="2">
-        <f>H26*M26</f>
+        <f t="shared" si="2"/>
         <v>0.20262134000000001</v>
       </c>
       <c r="R26" s="2">
-        <f>I26*N26</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S26" s="2">
-        <f>SUM(O26:R26)</f>
+        <f t="shared" si="3"/>
         <v>0.6727114005</v>
       </c>
       <c r="T26" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S26,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4608,51 +4608,51 @@
         <v>0.85</v>
       </c>
       <c r="O27" s="2">
-        <f>F27*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <f>G27*L27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <f>H27*M27</f>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="R27" s="2">
-        <f>I27*N27</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S27" s="2">
-        <f>SUM(O27:R27)</f>
+        <f t="shared" si="3"/>
         <v>0.69039224649999997</v>
       </c>
       <c r="T27" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S27,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="U27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4703,51 +4703,51 @@
         <v>0.85</v>
       </c>
       <c r="O28" s="2">
-        <f>F28*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <f>G28*L28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f>H28*M28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>I28*N28</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S28" s="2">
-        <f>SUM(O28:R28)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T28" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S28,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4798,51 +4798,51 @@
         <v>0.85</v>
       </c>
       <c r="O29" s="2">
-        <f>F29*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <f>G29*L29</f>
+        <f t="shared" si="1"/>
         <v>4.6978140000000007E-3</v>
       </c>
       <c r="Q29" s="2">
-        <f>H29*M29</f>
+        <f t="shared" si="2"/>
         <v>0.20262134000000001</v>
       </c>
       <c r="R29" s="2">
-        <f>I29*N29</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S29" s="2">
-        <f>SUM(O29:R29)</f>
+        <f t="shared" si="3"/>
         <v>0.6727114005</v>
       </c>
       <c r="T29" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S29,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="U29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4893,51 +4893,51 @@
         <v>0.85</v>
       </c>
       <c r="O30" s="2">
-        <f>F30*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <f>G30*L30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <f>H30*M30</f>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="R30" s="2">
-        <f>I30*N30</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S30" s="2">
-        <f>SUM(O30:R30)</f>
+        <f t="shared" si="3"/>
         <v>0.69039224649999997</v>
       </c>
       <c r="T30" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S30,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="U30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -4988,51 +4988,51 @@
         <v>0.85</v>
       </c>
       <c r="O31" s="2">
-        <f>F31*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P31" s="2">
-        <f>G31*L31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <f>H31*M31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>I31*N31</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S31" s="2">
-        <f>SUM(O31:R31)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T31" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S31,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5083,51 +5083,51 @@
         <v>0.85</v>
       </c>
       <c r="O32" s="2">
-        <f>F32*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <f>G32*L32</f>
+        <f t="shared" si="1"/>
         <v>4.6978140000000007E-3</v>
       </c>
       <c r="Q32" s="2">
-        <f>H32*M32</f>
+        <f t="shared" si="2"/>
         <v>0.20262134000000001</v>
       </c>
       <c r="R32" s="2">
-        <f>I32*N32</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S32" s="2">
-        <f>SUM(O32:R32)</f>
+        <f t="shared" si="3"/>
         <v>0.6727114005</v>
       </c>
       <c r="T32" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S32,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="U32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5178,51 +5178,51 @@
         <v>0.85</v>
       </c>
       <c r="O33" s="2">
-        <f>F33*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <f>G33*L33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="2">
-        <f>H33*M33</f>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="R33" s="2">
-        <f>I33*N33</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S33" s="2">
-        <f>SUM(O33:R33)</f>
+        <f t="shared" si="3"/>
         <v>0.69039224649999997</v>
       </c>
       <c r="T33" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S33,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="U33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5273,51 +5273,51 @@
         <v>0.85</v>
       </c>
       <c r="O34" s="2">
-        <f>F34*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <f>G34*L34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <f>H34*M34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>I34*N34</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S34" s="2">
-        <f>SUM(O34:R34)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T34" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S34,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5368,51 +5368,51 @@
         <v>0.85</v>
       </c>
       <c r="O35" s="2">
-        <f>F35*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <f>G35*L35</f>
+        <f t="shared" si="1"/>
         <v>4.6978140000000007E-3</v>
       </c>
       <c r="Q35" s="2">
-        <f>H35*M35</f>
+        <f t="shared" si="2"/>
         <v>0.20262134000000001</v>
       </c>
       <c r="R35" s="2">
-        <f>I35*N35</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S35" s="2">
-        <f>SUM(O35:R35)</f>
+        <f t="shared" si="3"/>
         <v>0.6727114005</v>
       </c>
       <c r="T35" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S35,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
       <c r="U35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5463,51 +5463,51 @@
         <v>0.85</v>
       </c>
       <c r="O36" s="2">
-        <f>F36*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P36" s="2">
-        <f>G36*L36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f>H36*M36</f>
+        <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="R36" s="2">
-        <f>I36*N36</f>
+        <f t="shared" si="5"/>
         <v>0.4653922465</v>
       </c>
       <c r="S36" s="2">
-        <f>SUM(O36:R36)</f>
+        <f t="shared" si="3"/>
         <v>0.69039224649999997</v>
       </c>
       <c r="T36" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S36,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="U36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5558,51 +5558,51 @@
         <v>0.85</v>
       </c>
       <c r="O37" s="2">
-        <f>F37*0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <f>G37*L37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f>H37*M37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>I37*N37</f>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="S37" s="2">
-        <f>SUM(O37:R37)</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="T37" s="5" t="str">
-        <f>_xlfn.CONCAT(MROUND(S37,0.05))</f>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
       <c r="U37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
